--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Space\Funix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LuongHuyThong\funix\Funix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A8D010C-96FB-41F9-8D85-35E3F41AC6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3313422E-3B10-4831-848B-4E4BE6708677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -425,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF03709-74DD-4CEC-AD19-ACEAFE61DAA0}">
-  <dimension ref="B3:Q15"/>
+  <dimension ref="B3:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,12 +445,12 @@
     <col min="3" max="9" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" customWidth="1"/>
-    <col min="14" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" customWidth="1"/>
+    <col min="13" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -464,24 +473,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -491,27 +500,27 @@
       </c>
       <c r="J4">
         <f>SUM(C4:I4)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -521,27 +530,27 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J7" si="0">SUM(C5:I5)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -551,30 +560,30 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L6">
-        <v>24380</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>12</v>
@@ -584,114 +593,118 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J8">
         <f>SUM(J4:J7)</f>
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K8">
         <v>50</v>
       </c>
       <c r="L8" s="1">
         <f>J8*K8</f>
-        <v>9200</v>
+        <v>9800</v>
       </c>
       <c r="M8" s="1">
         <f>L8*12</f>
-        <v>110400</v>
-      </c>
-      <c r="N8" t="s">
-        <v>7</v>
-      </c>
+        <v>117600</v>
+      </c>
+      <c r="N8" s="1"/>
       <c r="O8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L9" s="1">
         <f>L6*L8</f>
-        <v>224296000</v>
+        <v>245000000</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ref="M9:M11" si="1">L9*12</f>
-        <v>2691552000</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1400</v>
-      </c>
+        <v>2940000000</v>
+      </c>
+      <c r="N9" s="1"/>
       <c r="O9" s="1">
+        <v>1800</v>
+      </c>
+      <c r="P9" s="1">
         <v>2500</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>1000</v>
       </c>
-      <c r="Q9" s="1">
-        <f>SUM(N9:P9)</f>
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <f>SUM(O9:Q9)</f>
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L10" s="1">
-        <f>L8-Q9</f>
-        <v>4300</v>
+        <f>L8-R9</f>
+        <v>4500</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>51600</v>
-      </c>
-      <c r="N10" s="1">
-        <f>N9*L6</f>
-        <v>34132000</v>
-      </c>
+        <v>54000</v>
+      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="1">
         <f>O9*L6</f>
-        <v>60950000</v>
+        <v>45000000</v>
       </c>
       <c r="P10" s="1">
         <f>P9*L6</f>
-        <v>24380000</v>
+        <v>62500000</v>
       </c>
       <c r="Q10" s="1">
         <f>Q9*L6</f>
-        <v>119462000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+        <v>25000000</v>
+      </c>
+      <c r="R10" s="1">
+        <f>R9*L6</f>
+        <v>132500000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L11" s="1">
         <f>L10*L6</f>
-        <v>104834000</v>
+        <v>112500000</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>1258008000</v>
-      </c>
-      <c r="N11" s="1">
-        <f>N9*12</f>
-        <v>16800</v>
-      </c>
+        <v>1350000000</v>
+      </c>
+      <c r="N11" s="1"/>
       <c r="O11" s="1">
-        <f t="shared" ref="O11:Q11" si="2">O9*12</f>
+        <f>O9*12</f>
+        <v>21600</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11:R11" si="2">P9*12</f>
         <v>30000</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <f t="shared" si="2"/>
         <v>12000</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <f t="shared" si="2"/>
-        <v>58800</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+        <v>63600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
         <v>11</v>
       </c>
@@ -702,55 +715,59 @@
         <f>L12*12</f>
         <v>24000</v>
       </c>
-      <c r="N12" s="1">
-        <f>N10*12</f>
-        <v>409584000</v>
-      </c>
+      <c r="N12" s="1"/>
       <c r="O12" s="1">
-        <f t="shared" ref="O12:Q12" si="3">O10*12</f>
-        <v>731400000</v>
+        <f>O10*12</f>
+        <v>540000000</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="3"/>
-        <v>292560000</v>
+        <f t="shared" ref="P12:R12" si="3">P10*12</f>
+        <v>750000000</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="3"/>
-        <v>1433544000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+        <v>300000000</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="3"/>
+        <v>1590000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L13" s="1">
         <f>L12*L6</f>
-        <v>48760000</v>
+        <v>50000000</v>
       </c>
       <c r="M13" s="1">
         <f>L13*12</f>
-        <v>585120000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+        <v>600000000</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="1">
         <f>L10-L12</f>
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" ref="M13:M15" si="4">L14*12</f>
-        <v>27600</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M14:M15" si="4">L14*12</f>
+        <v>30000</v>
+      </c>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L15" s="1">
         <f>L14*L6</f>
-        <v>56074000</v>
+        <v>62500000</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="4"/>
-        <v>672888000</v>
-      </c>
+        <v>750000000</v>
+      </c>
+      <c r="N15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LuongHuyThong\funix\Funix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3313422E-3B10-4831-848B-4E4BE6708677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615D8C41-0887-4471-ABD3-C7EC91E527E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="B3:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,29 +478,33 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
         <f>SUM(C4:I4)</f>
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <f>J4*K8</f>
+        <v>2500</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
@@ -508,29 +512,33 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J7" si="0">SUM(C5:I5)</f>
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <f>J5*K8</f>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -538,29 +546,33 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <f>J6*K8</f>
+        <v>2500</v>
       </c>
       <c r="L6">
         <v>25000</v>
@@ -571,46 +583,50 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <f>J7*K8</f>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J8">
         <f>SUM(J4:J7)</f>
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K8">
         <v>50</v>
       </c>
       <c r="L8" s="1">
         <f>J8*K8</f>
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="M8" s="1">
         <f>L8*12</f>
-        <v>117600</v>
+        <v>120000</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" t="s">
@@ -629,11 +645,11 @@
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L9" s="1">
         <f>L6*L8</f>
-        <v>245000000</v>
+        <v>250000000</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ref="M9:M11" si="1">L9*12</f>
-        <v>2940000000</v>
+        <v>3000000000</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1">
@@ -653,11 +669,11 @@
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L10" s="1">
         <f>L8-R9</f>
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>54000</v>
+        <v>56400</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
@@ -680,11 +696,11 @@
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L11" s="1">
         <f>L10*L6</f>
-        <v>112500000</v>
+        <v>117500000</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>1350000000</v>
+        <v>1410000000</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
@@ -750,22 +766,22 @@
       </c>
       <c r="L14" s="1">
         <f>L10-L12</f>
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ref="M14:M15" si="4">L14*12</f>
-        <v>30000</v>
+        <v>32400</v>
       </c>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L15" s="1">
         <f>L14*L6</f>
-        <v>62500000</v>
+        <v>67500000</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="4"/>
-        <v>750000000</v>
+        <v>810000000</v>
       </c>
       <c r="N15" s="1"/>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LuongHuyThong\funix\Funix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615D8C41-0887-4471-ABD3-C7EC91E527E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE44B325-C5B6-4494-881E-FB722AF88C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2026-2027" sheetId="1" r:id="rId1"/>
+    <sheet name="2028-2029" sheetId="2" r:id="rId2"/>
+    <sheet name="2030" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>Monday</t>
   </si>
@@ -73,6 +75,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>loan</t>
   </si>
 </sst>
 </file>
@@ -434,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF03709-74DD-4CEC-AD19-ACEAFE61DAA0}">
-  <dimension ref="B3:R15"/>
+  <dimension ref="B3:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,12 +450,12 @@
     <col min="3" max="9" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="13" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -473,7 +478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -507,7 +512,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -541,7 +546,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -578,7 +583,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -612,7 +617,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J8">
         <f>SUM(J4:J7)</f>
         <v>200</v>
@@ -629,20 +634,23 @@
         <v>120000</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" t="s">
+      <c r="O8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" t="s">
         <v>7</v>
       </c>
-      <c r="P8" t="s">
-        <v>8</v>
-      </c>
       <c r="Q8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" t="s">
         <v>9</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L9" s="1">
         <f>L6*L8</f>
         <v>250000000</v>
@@ -652,23 +660,24 @@
         <v>3000000000</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
         <v>1800</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>2500</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>1000</v>
       </c>
-      <c r="R9" s="1">
-        <f>SUM(O9:Q9)</f>
+      <c r="S9" s="1">
+        <f>SUM(O9:R9)</f>
         <v>5300</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L10" s="1">
-        <f>L8-R9</f>
+        <f>L8-S9</f>
         <v>4700</v>
       </c>
       <c r="M10" s="1">
@@ -678,22 +687,26 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1">
         <f>O9*L6</f>
-        <v>45000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <f>P9*L6</f>
-        <v>62500000</v>
+        <v>45000000</v>
       </c>
       <c r="Q10" s="1">
         <f>Q9*L6</f>
-        <v>25000000</v>
+        <v>62500000</v>
       </c>
       <c r="R10" s="1">
         <f>R9*L6</f>
+        <v>25000000</v>
+      </c>
+      <c r="S10" s="1">
+        <f>S9*L6</f>
         <v>132500000</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L11" s="1">
         <f>L10*L6</f>
         <v>117500000</v>
@@ -705,22 +718,26 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1">
         <f>O9*12</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <f>P9*12</f>
         <v>21600</v>
       </c>
-      <c r="P11" s="1">
-        <f t="shared" ref="P11:R11" si="2">P9*12</f>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:S11" si="2">Q9*12</f>
         <v>30000</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <f t="shared" si="2"/>
         <v>12000</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <f t="shared" si="2"/>
         <v>63600</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
         <v>11</v>
       </c>
@@ -733,23 +750,27 @@
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1">
-        <f>O10*12</f>
+        <f>O11*L6</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f>P10*12</f>
         <v>540000000</v>
       </c>
-      <c r="P12" s="1">
-        <f t="shared" ref="P12:R12" si="3">P10*12</f>
+      <c r="Q12" s="1">
+        <f t="shared" ref="Q12:S12" si="3">Q10*12</f>
         <v>750000000</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <f t="shared" si="3"/>
         <v>300000000</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <f t="shared" si="3"/>
         <v>1590000000</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L13" s="1">
         <f>L12*L6</f>
         <v>50000000</v>
@@ -759,8 +780,9 @@
         <v>600000000</v>
       </c>
       <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>10</v>
       </c>
@@ -773,8 +795,9 @@
         <v>32400</v>
       </c>
       <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L15" s="1">
         <f>L14*L6</f>
         <v>67500000</v>
@@ -784,9 +807,842 @@
         <v>810000000</v>
       </c>
       <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <f>M14*2</f>
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <f>M12*2</f>
+        <v>48000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D273248E-602E-4E8B-92C0-CE7A95645C35}">
+  <dimension ref="B3:S18"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="9" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>SUM(C4:I4)</f>
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <f>J4*K8</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J7" si="0">SUM(C5:I5)</f>
+        <v>40</v>
+      </c>
+      <c r="K5">
+        <f>J5*K8</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <f>J6*K8</f>
+        <v>2800</v>
+      </c>
+      <c r="L6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <f>J7*K8</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f>SUM(J4:J7)</f>
+        <v>160</v>
+      </c>
+      <c r="K8">
+        <v>70</v>
+      </c>
+      <c r="L8" s="1">
+        <f>J8*K8</f>
+        <v>11200</v>
+      </c>
+      <c r="M8" s="1">
+        <f>L8*12</f>
+        <v>134400</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f>150000</f>
+        <v>150000</v>
+      </c>
+      <c r="L9" s="1">
+        <f>L6*L8</f>
+        <v>280000000</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" ref="M9:M11" si="1">L9*12</f>
+        <v>3360000000</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <v>1800</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2500</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="S9" s="1">
+        <f>SUM(O9:R9)</f>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <f>L8-S9</f>
+        <v>4900</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>58800</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
+        <f>O9*L6</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <f>P9*L6</f>
+        <v>45000000</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>Q9*L6</f>
+        <v>62500000</v>
+      </c>
+      <c r="R10" s="1">
+        <f>R9*L6</f>
+        <v>50000000</v>
+      </c>
+      <c r="S10" s="1">
+        <f>S9*L6</f>
+        <v>157500000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <f>L10*L6</f>
+        <v>122500000</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>1470000000</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
+        <f>O9*12</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <f>P9*12</f>
+        <v>21600</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:S12" si="2">Q9*12</f>
+        <v>30000</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="2"/>
+        <v>75600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="M12" s="1">
+        <f>L12*12</f>
+        <v>24000</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1">
+        <f>O11*L6</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f>P10*12</f>
+        <v>540000000</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="2"/>
+        <v>750000000</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="2"/>
+        <v>600000000</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="2"/>
+        <v>1890000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <f>L12*L6</f>
+        <v>50000000</v>
+      </c>
+      <c r="M13" s="1">
+        <f>L13*12</f>
+        <v>600000000</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1">
+        <f>L10-L12</f>
+        <v>2900</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" ref="M14:M15" si="3">L14*12</f>
+        <v>34800</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <f>L14*L6</f>
+        <v>72500000</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="3"/>
+        <v>870000000</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <f>M14*2</f>
+        <v>69600</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <f>M12*2</f>
+        <v>48000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F48E21D-7BC3-4DFC-9BB4-4E0BE816ECC3}">
+  <dimension ref="B3:S21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="9" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>SUM(C4:I4)</f>
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <f>J4*K8</f>
+        <v>4645.833333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J7" si="0">SUM(C5:I5)</f>
+        <v>40</v>
+      </c>
+      <c r="K5">
+        <f>J5*K8</f>
+        <v>4645.833333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <f>J6*K8</f>
+        <v>4645.833333333333</v>
+      </c>
+      <c r="L6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <f>J7*K8</f>
+        <v>4645.833333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f>SUM(J4:J7)</f>
+        <v>160</v>
+      </c>
+      <c r="K8">
+        <f>K9/J8/J9</f>
+        <v>116.14583333333333</v>
+      </c>
+      <c r="L8" s="1">
+        <f>J8*K8</f>
+        <v>18583.333333333332</v>
+      </c>
+      <c r="M8" s="1">
+        <f>L8*12</f>
+        <v>223000</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>223000</v>
+      </c>
+      <c r="L9" s="1">
+        <f>L6*L8</f>
+        <v>464583333.33333331</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" ref="M9:M11" si="1">L9*12</f>
+        <v>5575000000</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2500</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="S9" s="1">
+        <f>SUM(O9:R9)</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <f>L8-S9</f>
+        <v>12083.333333333332</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>145000</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
+        <f>O9*L6</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <f>P9*L6</f>
+        <v>50000000</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>Q9*L6</f>
+        <v>62500000</v>
+      </c>
+      <c r="R10" s="1">
+        <f>R9*L6</f>
+        <v>50000000</v>
+      </c>
+      <c r="S10" s="1">
+        <f>S9*L6</f>
+        <v>162500000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <f>L10*L6</f>
+        <v>302083333.33333331</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>3625000000</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
+        <f>O9*12</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <f>P9*12</f>
+        <v>24000</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:S12" si="2">Q9*12</f>
+        <v>30000</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="2"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M12" s="1">
+        <f>L12*12</f>
+        <v>48000</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1">
+        <f>O11*L6</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f>P10*12</f>
+        <v>600000000</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="2"/>
+        <v>750000000</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="2"/>
+        <v>600000000</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="2"/>
+        <v>1950000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <f>L12*L6</f>
+        <v>100000000</v>
+      </c>
+      <c r="M13" s="1">
+        <f>L13*12</f>
+        <v>1200000000</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1">
+        <f>L10-L12</f>
+        <v>8083.3333333333321</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" ref="M14:M15" si="3">L14*12</f>
+        <v>96999.999999999985</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <f>L14*L6</f>
+        <v>202083333.33333331</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="3"/>
+        <v>2425000000</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="17" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <f>M14*3</f>
+        <v>290999.99999999994</v>
+      </c>
+      <c r="N17" s="1">
+        <f>M12*3</f>
+        <v>144000</v>
+      </c>
+      <c r="O17" s="1">
+        <f>SUM(M17:N17)</f>
+        <v>434999.99999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <v>70000</v>
+      </c>
+      <c r="N18" s="1">
+        <v>48000</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18:O19" si="4">SUM(M18:N18)</f>
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="19" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M19" s="1">
+        <f>65000</f>
+        <v>65000</v>
+      </c>
+      <c r="N19" s="1">
+        <v>48000</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="4"/>
+        <v>113000</v>
+      </c>
+    </row>
+    <row r="20" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M20" s="1">
+        <f>SUM(M17:M19)</f>
+        <v>425999.99999999994</v>
+      </c>
+      <c r="N20" s="1">
+        <f>SUM(N17:N19)</f>
+        <v>240000</v>
+      </c>
+      <c r="O20" s="1">
+        <f>SUM(M20:N20)</f>
+        <v>666000</v>
+      </c>
+    </row>
+    <row r="21" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <f>M20*L6</f>
+        <v>10649999999.999998</v>
+      </c>
+      <c r="N21" s="1">
+        <f>N20*L6</f>
+        <v>6000000000</v>
+      </c>
+      <c r="O21" s="1">
+        <f>SUM(M21:N21)</f>
+        <v>16649999999.999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LuongHuyThong\funix\Funix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE44B325-C5B6-4494-881E-FB722AF88C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CA5E6D-0AFC-4FB4-ABCF-664305B62611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
   </bookViews>
   <sheets>
     <sheet name="2026-2027" sheetId="1" r:id="rId1"/>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF03709-74DD-4CEC-AD19-ACEAFE61DAA0}">
   <dimension ref="B3:S18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
       </c>
       <c r="K4">
         <f>J4*K8</f>
-        <v>2500</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
       </c>
       <c r="K5">
         <f>J5*K8</f>
-        <v>2500</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
       </c>
       <c r="K6">
         <f>J6*K8</f>
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L6">
         <v>25000</v>
@@ -614,7 +614,7 @@
       </c>
       <c r="K7">
         <f>J7*K8</f>
-        <v>2500</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -623,15 +623,15 @@
         <v>200</v>
       </c>
       <c r="K8">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L8" s="1">
         <f>J8*K8</f>
-        <v>10000</v>
+        <v>6400</v>
       </c>
       <c r="M8" s="1">
         <f>L8*12</f>
-        <v>120000</v>
+        <v>76800</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -653,11 +653,11 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L9" s="1">
         <f>L6*L8</f>
-        <v>250000000</v>
+        <v>160000000</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ref="M9:M11" si="1">L9*12</f>
-        <v>3000000000</v>
+        <v>1920000000</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -678,11 +678,11 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L10" s="1">
         <f>L8-S9</f>
-        <v>4700</v>
+        <v>1100</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>56400</v>
+        <v>13200</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
@@ -709,11 +709,11 @@
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L11" s="1">
         <f>L10*L6</f>
-        <v>117500000</v>
+        <v>27500000</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>1410000000</v>
+        <v>330000000</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
@@ -788,11 +788,11 @@
       </c>
       <c r="L14" s="1">
         <f>L10-L12</f>
-        <v>2700</v>
+        <v>-900</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ref="M14:M15" si="4">L14*12</f>
-        <v>32400</v>
+        <v>-10800</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -800,11 +800,11 @@
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L15" s="1">
         <f>L14*L6</f>
-        <v>67500000</v>
+        <v>-22500000</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="4"/>
-        <v>810000000</v>
+        <v>-270000000</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -812,7 +812,7 @@
     <row r="17" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M17" s="1">
         <f>M14*2</f>
-        <v>64800</v>
+        <v>-21600</v>
       </c>
     </row>
     <row r="18" spans="13:13" x14ac:dyDescent="0.25">
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F48E21D-7BC3-4DFC-9BB4-4E0BE816ECC3}">
   <dimension ref="B3:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LuongHuyThong\funix\Funix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CA5E6D-0AFC-4FB4-ABCF-664305B62611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE7798E-D5D1-416C-8EC5-558F758B82E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
   </bookViews>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF03709-74DD-4CEC-AD19-ACEAFE61DAA0}">
-  <dimension ref="B3:S18"/>
+  <dimension ref="B3:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
       </c>
       <c r="K4">
         <f>J4*K8</f>
-        <v>1600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
       </c>
       <c r="K5">
         <f>J5*K8</f>
-        <v>1600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
       </c>
       <c r="K6">
         <f>J6*K8</f>
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="L6">
         <v>25000</v>
@@ -614,7 +614,7 @@
       </c>
       <c r="K7">
         <f>J7*K8</f>
-        <v>1600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -623,15 +623,15 @@
         <v>200</v>
       </c>
       <c r="K8">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="L8" s="1">
         <f>J8*K8</f>
-        <v>6400</v>
+        <v>12000</v>
       </c>
       <c r="M8" s="1">
         <f>L8*12</f>
-        <v>76800</v>
+        <v>144000</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -653,11 +653,11 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L9" s="1">
         <f>L6*L8</f>
-        <v>160000000</v>
+        <v>300000000</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ref="M9:M11" si="1">L9*12</f>
-        <v>1920000000</v>
+        <v>3600000000</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -678,11 +678,11 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L10" s="1">
         <f>L8-S9</f>
-        <v>1100</v>
+        <v>6700</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>13200</v>
+        <v>80400</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
@@ -709,11 +709,11 @@
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L11" s="1">
         <f>L10*L6</f>
-        <v>27500000</v>
+        <v>167500000</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>330000000</v>
+        <v>2010000000</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
@@ -788,11 +788,11 @@
       </c>
       <c r="L14" s="1">
         <f>L10-L12</f>
-        <v>-900</v>
+        <v>4700</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ref="M14:M15" si="4">L14*12</f>
-        <v>-10800</v>
+        <v>56400</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -800,25 +800,147 @@
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L15" s="1">
         <f>L14*L6</f>
-        <v>-22500000</v>
+        <v>117500000</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="4"/>
-        <v>-270000000</v>
+        <v>1410000000</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="P15" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2500</v>
+      </c>
+      <c r="R15" s="1">
+        <v>500</v>
+      </c>
+      <c r="S15" s="1">
+        <f>SUM(O15:R15)</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="P16" s="1">
+        <f>P15*L12</f>
+        <v>1000000</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>Q15*L12</f>
+        <v>5000000</v>
+      </c>
+      <c r="R16" s="1">
+        <f>R15*L12</f>
+        <v>1000000</v>
+      </c>
+      <c r="S16" s="1">
+        <f>S15*L12</f>
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="17" spans="12:19" x14ac:dyDescent="0.25">
       <c r="M17" s="1">
         <f>M14*2</f>
-        <v>-21600</v>
-      </c>
-    </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+        <v>112800</v>
+      </c>
+      <c r="P17" s="1">
+        <f>P15*12</f>
+        <v>6000</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" ref="Q17:S17" si="5">Q15*12</f>
+        <v>30000</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="5"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="18" spans="12:19" x14ac:dyDescent="0.25">
       <c r="M18" s="1">
         <f>M12*2</f>
         <v>48000</v>
+      </c>
+      <c r="P18" s="1">
+        <f>P16*12</f>
+        <v>12000000</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" ref="Q18:S18" si="6">Q16*12</f>
+        <v>60000000</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="6"/>
+        <v>12000000</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="6"/>
+        <v>84000000</v>
+      </c>
+    </row>
+    <row r="21" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <f>L8-S15</f>
+        <v>8500</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" ref="M21:M23" si="7">L21*12</f>
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="22" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <f>L21*L6</f>
+        <v>212500000</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="7"/>
+        <v>2550000000</v>
+      </c>
+    </row>
+    <row r="23" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>2000</v>
+      </c>
+      <c r="M23" s="1">
+        <f>L23*12</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="24" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <f>L23*L6</f>
+        <v>50000000</v>
+      </c>
+      <c r="M24" s="1">
+        <f>L24*12</f>
+        <v>600000000</v>
+      </c>
+    </row>
+    <row r="25" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <f>L21-L23</f>
+        <v>6500</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" ref="M25:M26" si="8">L25*12</f>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="26" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <f>L25*L6</f>
+        <v>162500000</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="8"/>
+        <v>1950000000</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LuongHuyThong\funix\Funix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE7798E-D5D1-416C-8EC5-558F758B82E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F248E0-0C99-4378-8FD5-1324E61F6282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
   </bookViews>
   <sheets>
     <sheet name="2026-2027" sheetId="1" r:id="rId1"/>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF03709-74DD-4CEC-AD19-ACEAFE61DAA0}">
-  <dimension ref="B3:S26"/>
+  <dimension ref="B2:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +455,12 @@
     <col min="19" max="19" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <f>350*4</f>
+        <v>1400</v>
+      </c>
+    </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
@@ -498,14 +504,14 @@
         <v>8</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
         <f>SUM(C4:I4)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <f>J4*K8</f>
@@ -532,14 +538,14 @@
         <v>8</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J7" si="0">SUM(C5:I5)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <f>J5*K8</f>
@@ -566,14 +572,14 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <f>J6*K8</f>
@@ -603,14 +609,14 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <f>J7*K8</f>
@@ -620,10 +626,10 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J8">
         <f>SUM(J4:J7)</f>
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K8">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L8" s="1">
         <f>J8*K8</f>
@@ -662,27 +668,27 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q9" s="1">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="R9" s="1">
         <v>1000</v>
       </c>
       <c r="S9" s="1">
         <f>SUM(O9:R9)</f>
-        <v>5300</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L10" s="1">
         <f>L8-S9</f>
-        <v>6700</v>
+        <v>8000</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>80400</v>
+        <v>96000</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
@@ -691,11 +697,11 @@
       </c>
       <c r="P10" s="1">
         <f>P9*L6</f>
-        <v>45000000</v>
+        <v>25000000</v>
       </c>
       <c r="Q10" s="1">
         <f>Q9*L6</f>
-        <v>62500000</v>
+        <v>50000000</v>
       </c>
       <c r="R10" s="1">
         <f>R9*L6</f>
@@ -703,17 +709,17 @@
       </c>
       <c r="S10" s="1">
         <f>S9*L6</f>
-        <v>132500000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L11" s="1">
         <f>L10*L6</f>
-        <v>167500000</v>
+        <v>200000000</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>2010000000</v>
+        <v>2400000000</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
@@ -722,11 +728,11 @@
       </c>
       <c r="P11" s="1">
         <f>P9*12</f>
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ref="Q11:S11" si="2">Q9*12</f>
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="2"/>
@@ -734,7 +740,7 @@
       </c>
       <c r="S11" s="1">
         <f t="shared" si="2"/>
-        <v>63600</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -742,11 +748,11 @@
         <v>11</v>
       </c>
       <c r="L12" s="1">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M12" s="1">
         <f>L12*12</f>
-        <v>24000</v>
+        <v>15600</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1">
@@ -755,11 +761,11 @@
       </c>
       <c r="P12" s="1">
         <f>P10*12</f>
-        <v>540000000</v>
+        <v>300000000</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" ref="Q12:S12" si="3">Q10*12</f>
-        <v>750000000</v>
+        <v>600000000</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="3"/>
@@ -767,17 +773,17 @@
       </c>
       <c r="S12" s="1">
         <f t="shared" si="3"/>
-        <v>1590000000</v>
+        <v>1200000000</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L13" s="1">
         <f>L12*L6</f>
-        <v>50000000</v>
+        <v>32500000</v>
       </c>
       <c r="M13" s="1">
         <f>L13*12</f>
-        <v>600000000</v>
+        <v>390000000</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -788,11 +794,11 @@
       </c>
       <c r="L14" s="1">
         <f>L10-L12</f>
-        <v>4700</v>
+        <v>6700</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ref="M14:M15" si="4">L14*12</f>
-        <v>56400</v>
+        <v>80400</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -800,11 +806,11 @@
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L15" s="1">
         <f>L14*L6</f>
-        <v>117500000</v>
+        <v>167500000</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="4"/>
-        <v>1410000000</v>
+        <v>2010000000</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -825,25 +831,25 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P16" s="1">
         <f>P15*L12</f>
-        <v>1000000</v>
+        <v>650000</v>
       </c>
       <c r="Q16" s="1">
         <f>Q15*L12</f>
-        <v>5000000</v>
+        <v>3250000</v>
       </c>
       <c r="R16" s="1">
         <f>R15*L12</f>
-        <v>1000000</v>
+        <v>650000</v>
       </c>
       <c r="S16" s="1">
         <f>S15*L12</f>
-        <v>7000000</v>
+        <v>4550000</v>
       </c>
     </row>
     <row r="17" spans="12:19" x14ac:dyDescent="0.25">
       <c r="M17" s="1">
         <f>M14*2</f>
-        <v>112800</v>
+        <v>160800</v>
       </c>
       <c r="P17" s="1">
         <f>P15*12</f>
@@ -865,23 +871,23 @@
     <row r="18" spans="12:19" x14ac:dyDescent="0.25">
       <c r="M18" s="1">
         <f>M12*2</f>
-        <v>48000</v>
+        <v>31200</v>
       </c>
       <c r="P18" s="1">
         <f>P16*12</f>
-        <v>12000000</v>
+        <v>7800000</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" ref="Q18:S18" si="6">Q16*12</f>
-        <v>60000000</v>
+        <v>39000000</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="6"/>
-        <v>12000000</v>
+        <v>7800000</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="6"/>
-        <v>84000000</v>
+        <v>54600000</v>
       </c>
     </row>
     <row r="21" spans="12:19" x14ac:dyDescent="0.25">
@@ -890,7 +896,7 @@
         <v>8500</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" ref="M21:M23" si="7">L21*12</f>
+        <f t="shared" ref="M21:M22" si="7">L21*12</f>
         <v>102000</v>
       </c>
     </row>
@@ -1334,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F48E21D-7BC3-4DFC-9BB4-4E0BE816ECC3}">
   <dimension ref="B3:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1405,7 @@
       </c>
       <c r="K4">
         <f>J4*K8</f>
-        <v>4645.833333333333</v>
+        <v>4223.484848484848</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -1430,7 +1436,7 @@
       </c>
       <c r="K5">
         <f>J5*K8</f>
-        <v>4645.833333333333</v>
+        <v>4223.484848484848</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -1461,7 +1467,7 @@
       </c>
       <c r="K6">
         <f>J6*K8</f>
-        <v>4645.833333333333</v>
+        <v>4223.484848484848</v>
       </c>
       <c r="L6">
         <v>25000</v>
@@ -1495,7 +1501,7 @@
       </c>
       <c r="K7">
         <f>J7*K8</f>
-        <v>4645.833333333333</v>
+        <v>4223.484848484848</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -1504,16 +1510,16 @@
         <v>160</v>
       </c>
       <c r="K8">
-        <f>K9/J8/J9</f>
-        <v>116.14583333333333</v>
+        <f>K9/J10/J9/J11</f>
+        <v>105.5871212121212</v>
       </c>
       <c r="L8" s="1">
         <f>J8*K8</f>
-        <v>18583.333333333332</v>
+        <v>16893.939393939392</v>
       </c>
       <c r="M8" s="1">
         <f>L8*12</f>
-        <v>223000</v>
+        <v>202727.27272727271</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -1541,11 +1547,11 @@
       </c>
       <c r="L9" s="1">
         <f>L6*L8</f>
-        <v>464583333.33333331</v>
+        <v>422348484.84848481</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ref="M9:M11" si="1">L9*12</f>
-        <v>5575000000</v>
+        <v>5068181818.181818</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1564,13 +1570,16 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>22</v>
+      </c>
       <c r="L10" s="1">
         <f>L8-S9</f>
-        <v>12083.333333333332</v>
+        <v>10393.939393939392</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>145000</v>
+        <v>124727.27272727271</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
@@ -1595,13 +1604,16 @@
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>8</v>
+      </c>
       <c r="L11" s="1">
         <f>L10*L6</f>
-        <v>302083333.33333331</v>
+        <v>259848484.84848481</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>3625000000</v>
+        <v>3118181818.181818</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
@@ -1636,7 +1648,10 @@
         <f>L12*12</f>
         <v>48000</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <f>M12+M14</f>
+        <v>124727.27272727271</v>
+      </c>
       <c r="O12" s="1">
         <f>O11*L6</f>
         <v>0</v>
@@ -1667,7 +1682,10 @@
         <f>L13*12</f>
         <v>1200000000</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <f>N12*L6</f>
+        <v>3118181818.1818175</v>
+      </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -1676,11 +1694,11 @@
       </c>
       <c r="L14" s="1">
         <f>L10-L12</f>
-        <v>8083.3333333333321</v>
+        <v>6393.9393939393922</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ref="M14:M15" si="3">L14*12</f>
-        <v>96999.999999999985</v>
+        <v>76727.272727272706</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1688,11 +1706,11 @@
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L15" s="1">
         <f>L14*L6</f>
-        <v>202083333.33333331</v>
+        <v>159848484.84848481</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="3"/>
-        <v>2425000000</v>
+        <v>1918181818.1818178</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1700,7 +1718,7 @@
     <row r="17" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M17" s="1">
         <f>M14*3</f>
-        <v>290999.99999999994</v>
+        <v>230181.81818181812</v>
       </c>
       <c r="N17" s="1">
         <f>M12*3</f>
@@ -1708,7 +1726,7 @@
       </c>
       <c r="O17" s="1">
         <f>SUM(M17:N17)</f>
-        <v>434999.99999999994</v>
+        <v>374181.81818181812</v>
       </c>
     </row>
     <row r="18" spans="13:15" x14ac:dyDescent="0.25">
@@ -1739,7 +1757,7 @@
     <row r="20" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M20" s="1">
         <f>SUM(M17:M19)</f>
-        <v>425999.99999999994</v>
+        <v>365181.81818181812</v>
       </c>
       <c r="N20" s="1">
         <f>SUM(N17:N19)</f>
@@ -1747,13 +1765,13 @@
       </c>
       <c r="O20" s="1">
         <f>SUM(M20:N20)</f>
-        <v>666000</v>
+        <v>605181.81818181812</v>
       </c>
     </row>
     <row r="21" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M21" s="1">
         <f>M20*L6</f>
-        <v>10649999999.999998</v>
+        <v>9129545454.5454521</v>
       </c>
       <c r="N21" s="1">
         <f>N20*L6</f>
@@ -1761,7 +1779,7 @@
       </c>
       <c r="O21" s="1">
         <f>SUM(M21:N21)</f>
-        <v>16649999999.999998</v>
+        <v>15129545454.545452</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LuongHuyThong\funix\Funix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F248E0-0C99-4378-8FD5-1324E61F6282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93FD625-D389-42A6-AFA3-053670C2382E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
   </bookViews>
@@ -1340,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F48E21D-7BC3-4DFC-9BB4-4E0BE816ECC3}">
   <dimension ref="B3:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:O24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="K4">
         <f>J4*K8</f>
-        <v>4223.484848484848</v>
+        <v>3049.2424242424245</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="K5">
         <f>J5*K8</f>
-        <v>4223.484848484848</v>
+        <v>3049.2424242424245</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="K6">
         <f>J6*K8</f>
-        <v>4223.484848484848</v>
+        <v>3049.2424242424245</v>
       </c>
       <c r="L6">
         <v>25000</v>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="K7">
         <f>J7*K8</f>
-        <v>4223.484848484848</v>
+        <v>3049.2424242424245</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -1511,15 +1511,15 @@
       </c>
       <c r="K8">
         <f>K9/J10/J9/J11</f>
-        <v>105.5871212121212</v>
+        <v>76.231060606060609</v>
       </c>
       <c r="L8" s="1">
         <f>J8*K8</f>
-        <v>16893.939393939392</v>
+        <v>12196.969696969698</v>
       </c>
       <c r="M8" s="1">
         <f>L8*12</f>
-        <v>202727.27272727271</v>
+        <v>146363.63636363638</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -1543,15 +1543,15 @@
         <v>12</v>
       </c>
       <c r="K9">
-        <v>223000</v>
+        <v>161000</v>
       </c>
       <c r="L9" s="1">
         <f>L6*L8</f>
-        <v>422348484.84848481</v>
+        <v>304924242.42424244</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ref="M9:M11" si="1">L9*12</f>
-        <v>5068181818.181818</v>
+        <v>3659090909.090909</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1559,14 +1559,14 @@
         <v>2000</v>
       </c>
       <c r="Q9" s="1">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="R9" s="1">
         <v>2000</v>
       </c>
       <c r="S9" s="1">
         <f>SUM(O9:R9)</f>
-        <v>6500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
@@ -1575,11 +1575,11 @@
       </c>
       <c r="L10" s="1">
         <f>L8-S9</f>
-        <v>10393.939393939392</v>
+        <v>7196.9696969696979</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>124727.27272727271</v>
+        <v>86363.636363636382</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="Q10" s="1">
         <f>Q9*L6</f>
-        <v>62500000</v>
+        <v>25000000</v>
       </c>
       <c r="R10" s="1">
         <f>R9*L6</f>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="S10" s="1">
         <f>S9*L6</f>
-        <v>162500000</v>
+        <v>125000000</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
@@ -1609,11 +1609,11 @@
       </c>
       <c r="L11" s="1">
         <f>L10*L6</f>
-        <v>259848484.84848481</v>
+        <v>179924242.42424244</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>3118181818.181818</v>
+        <v>2159090909.090909</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="Q11" s="1">
         <f t="shared" ref="Q11:S12" si="2">Q9*12</f>
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="2"/>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="S11" s="1">
         <f t="shared" si="2"/>
-        <v>78000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -1642,15 +1642,15 @@
         <v>11</v>
       </c>
       <c r="L12" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M12" s="1">
         <f>L12*12</f>
-        <v>48000</v>
+        <v>36000</v>
       </c>
       <c r="N12" s="1">
         <f>M12+M14</f>
-        <v>124727.27272727271</v>
+        <v>86363.636363636382</v>
       </c>
       <c r="O12" s="1">
         <f>O11*L6</f>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="2"/>
-        <v>750000000</v>
+        <v>300000000</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="2"/>
@@ -1670,21 +1670,21 @@
       </c>
       <c r="S12" s="1">
         <f t="shared" si="2"/>
-        <v>1950000000</v>
+        <v>1500000000</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L13" s="1">
         <f>L12*L6</f>
-        <v>100000000</v>
+        <v>75000000</v>
       </c>
       <c r="M13" s="1">
         <f>L13*12</f>
-        <v>1200000000</v>
+        <v>900000000</v>
       </c>
       <c r="N13" s="1">
         <f>N12*L6</f>
-        <v>3118181818.1818175</v>
+        <v>2159090909.0909095</v>
       </c>
       <c r="O13" s="1"/>
     </row>
@@ -1694,11 +1694,11 @@
       </c>
       <c r="L14" s="1">
         <f>L10-L12</f>
-        <v>6393.9393939393922</v>
+        <v>4196.9696969696979</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ref="M14:M15" si="3">L14*12</f>
-        <v>76727.272727272706</v>
+        <v>50363.636363636375</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1706,11 +1706,11 @@
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L15" s="1">
         <f>L14*L6</f>
-        <v>159848484.84848481</v>
+        <v>104924242.42424245</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="3"/>
-        <v>1918181818.1818178</v>
+        <v>1259090909.0909095</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1718,15 +1718,15 @@
     <row r="17" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M17" s="1">
         <f>M14*3</f>
-        <v>230181.81818181812</v>
+        <v>151090.90909090912</v>
       </c>
       <c r="N17" s="1">
         <f>M12*3</f>
-        <v>144000</v>
+        <v>108000</v>
       </c>
       <c r="O17" s="1">
         <f>SUM(M17:N17)</f>
-        <v>374181.81818181812</v>
+        <v>259090.90909090912</v>
       </c>
     </row>
     <row r="18" spans="13:15" x14ac:dyDescent="0.25">
@@ -1757,29 +1757,29 @@
     <row r="20" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M20" s="1">
         <f>SUM(M17:M19)</f>
-        <v>365181.81818181812</v>
+        <v>286090.90909090912</v>
       </c>
       <c r="N20" s="1">
         <f>SUM(N17:N19)</f>
-        <v>240000</v>
+        <v>204000</v>
       </c>
       <c r="O20" s="1">
         <f>SUM(M20:N20)</f>
-        <v>605181.81818181812</v>
+        <v>490090.90909090912</v>
       </c>
     </row>
     <row r="21" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M21" s="1">
         <f>M20*L6</f>
-        <v>9129545454.5454521</v>
+        <v>7152272727.272728</v>
       </c>
       <c r="N21" s="1">
         <f>N20*L6</f>
-        <v>6000000000</v>
+        <v>5100000000</v>
       </c>
       <c r="O21" s="1">
         <f>SUM(M21:N21)</f>
-        <v>15129545454.545452</v>
+        <v>12252272727.272728</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LuongHuyThong\funix\Funix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93FD625-D389-42A6-AFA3-053670C2382E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24272EF2-EDB7-4A1F-AA7D-FBBD767F9E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
   </bookViews>
@@ -1341,7 +1341,7 @@
   <dimension ref="B3:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,11 +1396,14 @@
       <c r="G4">
         <v>8</v>
       </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUM(C4:I4)</f>
+        <f>SUM(C4:G4)</f>
         <v>40</v>
       </c>
       <c r="K4">
@@ -1427,11 +1430,14 @@
       <c r="G5">
         <v>8</v>
       </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J7" si="0">SUM(C5:I5)</f>
+        <f t="shared" ref="J5:J7" si="0">SUM(C5:G5)</f>
         <v>40</v>
       </c>
       <c r="K5">
@@ -1458,6 +1464,9 @@
       <c r="G6">
         <v>8</v>
       </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
       <c r="I6">
         <v>0</v>
       </c>
@@ -1492,6 +1501,9 @@
       <c r="G7">
         <v>8</v>
       </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
       <c r="I7">
         <v>0</v>
       </c>
@@ -1505,6 +1517,9 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>18</v>
+      </c>
       <c r="J8">
         <f>SUM(J4:J7)</f>
         <v>160</v>
@@ -1514,12 +1529,12 @@
         <v>76.231060606060609</v>
       </c>
       <c r="L8" s="1">
-        <f>J8*K8</f>
-        <v>12196.969696969698</v>
+        <f>J8*K8+H9</f>
+        <v>19396.969696969696</v>
       </c>
       <c r="M8" s="1">
         <f>L8*12</f>
-        <v>146363.63636363638</v>
+        <v>232763.63636363635</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -1539,6 +1554,13 @@
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <f>G9*H8*G10</f>
+        <v>7200</v>
+      </c>
       <c r="J9">
         <v>12</v>
       </c>
@@ -1547,11 +1569,11 @@
       </c>
       <c r="L9" s="1">
         <f>L6*L8</f>
-        <v>304924242.42424244</v>
+        <v>484924242.42424238</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ref="M9:M11" si="1">L9*12</f>
-        <v>3659090909.090909</v>
+        <v>5819090909.0909081</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1559,27 +1581,30 @@
         <v>2000</v>
       </c>
       <c r="Q9" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="R9" s="1">
         <v>2000</v>
       </c>
       <c r="S9" s="1">
         <f>SUM(O9:R9)</f>
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>4</v>
+      </c>
       <c r="J10">
         <v>22</v>
       </c>
       <c r="L10" s="1">
         <f>L8-S9</f>
-        <v>7196.9696969696979</v>
+        <v>13396.969696969696</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>86363.636363636382</v>
+        <v>160763.63636363635</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
@@ -1592,7 +1617,7 @@
       </c>
       <c r="Q10" s="1">
         <f>Q9*L6</f>
-        <v>25000000</v>
+        <v>50000000</v>
       </c>
       <c r="R10" s="1">
         <f>R9*L6</f>
@@ -1600,7 +1625,7 @@
       </c>
       <c r="S10" s="1">
         <f>S9*L6</f>
-        <v>125000000</v>
+        <v>150000000</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
@@ -1609,11 +1634,11 @@
       </c>
       <c r="L11" s="1">
         <f>L10*L6</f>
-        <v>179924242.42424244</v>
+        <v>334924242.42424238</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>2159090909.090909</v>
+        <v>4019090909.0909085</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
@@ -1626,7 +1651,7 @@
       </c>
       <c r="Q11" s="1">
         <f t="shared" ref="Q11:S12" si="2">Q9*12</f>
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="2"/>
@@ -1634,7 +1659,7 @@
       </c>
       <c r="S11" s="1">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -1642,15 +1667,15 @@
         <v>11</v>
       </c>
       <c r="L12" s="1">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M12" s="1">
         <f>L12*12</f>
-        <v>36000</v>
+        <v>96000</v>
       </c>
       <c r="N12" s="1">
         <f>M12+M14</f>
-        <v>86363.636363636382</v>
+        <v>160763.63636363635</v>
       </c>
       <c r="O12" s="1">
         <f>O11*L6</f>
@@ -1662,7 +1687,7 @@
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="2"/>
-        <v>300000000</v>
+        <v>600000000</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="2"/>
@@ -1670,21 +1695,21 @@
       </c>
       <c r="S12" s="1">
         <f t="shared" si="2"/>
-        <v>1500000000</v>
+        <v>1800000000</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L13" s="1">
         <f>L12*L6</f>
-        <v>75000000</v>
+        <v>200000000</v>
       </c>
       <c r="M13" s="1">
         <f>L13*12</f>
-        <v>900000000</v>
+        <v>2400000000</v>
       </c>
       <c r="N13" s="1">
         <f>N12*L6</f>
-        <v>2159090909.0909095</v>
+        <v>4019090909.090909</v>
       </c>
       <c r="O13" s="1"/>
     </row>
@@ -1694,11 +1719,11 @@
       </c>
       <c r="L14" s="1">
         <f>L10-L12</f>
-        <v>4196.9696969696979</v>
+        <v>5396.9696969696961</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ref="M14:M15" si="3">L14*12</f>
-        <v>50363.636363636375</v>
+        <v>64763.636363636353</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1706,27 +1731,27 @@
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L15" s="1">
         <f>L14*L6</f>
-        <v>104924242.42424245</v>
+        <v>134924242.42424241</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="3"/>
-        <v>1259090909.0909095</v>
+        <v>1619090909.090909</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
     <row r="17" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M17" s="1">
-        <f>M14*3</f>
-        <v>151090.90909090912</v>
+        <f>M14*4</f>
+        <v>259054.54545454541</v>
       </c>
       <c r="N17" s="1">
-        <f>M12*3</f>
-        <v>108000</v>
+        <f>M12*4</f>
+        <v>384000</v>
       </c>
       <c r="O17" s="1">
         <f>SUM(M17:N17)</f>
-        <v>259090.90909090912</v>
+        <v>643054.54545454541</v>
       </c>
     </row>
     <row r="18" spans="13:15" x14ac:dyDescent="0.25">
@@ -1757,29 +1782,29 @@
     <row r="20" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M20" s="1">
         <f>SUM(M17:M19)</f>
-        <v>286090.90909090912</v>
+        <v>394054.54545454541</v>
       </c>
       <c r="N20" s="1">
         <f>SUM(N17:N19)</f>
-        <v>204000</v>
+        <v>480000</v>
       </c>
       <c r="O20" s="1">
         <f>SUM(M20:N20)</f>
-        <v>490090.90909090912</v>
+        <v>874054.54545454541</v>
       </c>
     </row>
     <row r="21" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M21" s="1">
         <f>M20*L6</f>
-        <v>7152272727.272728</v>
+        <v>9851363636.363636</v>
       </c>
       <c r="N21" s="1">
         <f>N20*L6</f>
-        <v>5100000000</v>
+        <v>12000000000</v>
       </c>
       <c r="O21" s="1">
         <f>SUM(M21:N21)</f>
-        <v>12252272727.272728</v>
+        <v>21851363636.363636</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LuongHuyThong\funix\Funix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24272EF2-EDB7-4A1F-AA7D-FBBD767F9E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09265AB3-7020-4440-A470-F39401B80C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
   </bookViews>
@@ -1341,7 +1341,7 @@
   <dimension ref="B3:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="K4">
         <f>J4*K8</f>
-        <v>3049.2424242424245</v>
+        <v>4385.719696969697</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="K5">
         <f>J5*K8</f>
-        <v>3049.2424242424245</v>
+        <v>4385.719696969697</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="K6">
         <f>J6*K8</f>
-        <v>3049.2424242424245</v>
+        <v>4385.719696969697</v>
       </c>
       <c r="L6">
         <v>25000</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="K7">
         <f>J7*K8</f>
-        <v>3049.2424242424245</v>
+        <v>4385.719696969697</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -1526,15 +1526,15 @@
       </c>
       <c r="K8">
         <f>K9/J10/J9/J11</f>
-        <v>76.231060606060609</v>
+        <v>109.64299242424242</v>
       </c>
       <c r="L8" s="1">
         <f>J8*K8+H9</f>
-        <v>19396.969696969696</v>
+        <v>24742.878787878788</v>
       </c>
       <c r="M8" s="1">
         <f>L8*12</f>
-        <v>232763.63636363635</v>
+        <v>296914.54545454547</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -1565,15 +1565,15 @@
         <v>12</v>
       </c>
       <c r="K9">
-        <v>161000</v>
+        <v>231566</v>
       </c>
       <c r="L9" s="1">
         <f>L6*L8</f>
-        <v>484924242.42424238</v>
+        <v>618571969.69696975</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ref="M9:M11" si="1">L9*12</f>
-        <v>5819090909.0909081</v>
+        <v>7422863636.363637</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1600,11 +1600,11 @@
       </c>
       <c r="L10" s="1">
         <f>L8-S9</f>
-        <v>13396.969696969696</v>
+        <v>18742.878787878788</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>160763.63636363635</v>
+        <v>224914.54545454547</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="L11" s="1">
         <f>L10*L6</f>
-        <v>334924242.42424238</v>
+        <v>468571969.69696969</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>4019090909.0909085</v>
+        <v>5622863636.363636</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="N12" s="1">
         <f>M12+M14</f>
-        <v>160763.63636363635</v>
+        <v>224914.54545454547</v>
       </c>
       <c r="O12" s="1">
         <f>O11*L6</f>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="N13" s="1">
         <f>N12*L6</f>
-        <v>4019090909.090909</v>
+        <v>5622863636.363637</v>
       </c>
       <c r="O13" s="1"/>
     </row>
@@ -1719,11 +1719,11 @@
       </c>
       <c r="L14" s="1">
         <f>L10-L12</f>
-        <v>5396.9696969696961</v>
+        <v>10742.878787878788</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ref="M14:M15" si="3">L14*12</f>
-        <v>64763.636363636353</v>
+        <v>128914.54545454546</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1731,11 +1731,11 @@
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L15" s="1">
         <f>L14*L6</f>
-        <v>134924242.42424241</v>
+        <v>268571969.69696969</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="3"/>
-        <v>1619090909.090909</v>
+        <v>3222863636.363636</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1743,7 +1743,7 @@
     <row r="17" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M17" s="1">
         <f>M14*4</f>
-        <v>259054.54545454541</v>
+        <v>515658.18181818182</v>
       </c>
       <c r="N17" s="1">
         <f>M12*4</f>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="O17" s="1">
         <f>SUM(M17:N17)</f>
-        <v>643054.54545454541</v>
+        <v>899658.18181818188</v>
       </c>
     </row>
     <row r="18" spans="13:15" x14ac:dyDescent="0.25">
@@ -1782,7 +1782,7 @@
     <row r="20" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M20" s="1">
         <f>SUM(M17:M19)</f>
-        <v>394054.54545454541</v>
+        <v>650658.18181818188</v>
       </c>
       <c r="N20" s="1">
         <f>SUM(N17:N19)</f>
@@ -1790,13 +1790,13 @@
       </c>
       <c r="O20" s="1">
         <f>SUM(M20:N20)</f>
-        <v>874054.54545454541</v>
+        <v>1130658.1818181819</v>
       </c>
     </row>
     <row r="21" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M21" s="1">
         <f>M20*L6</f>
-        <v>9851363636.363636</v>
+        <v>16266454545.454548</v>
       </c>
       <c r="N21" s="1">
         <f>N20*L6</f>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="O21" s="1">
         <f>SUM(M21:N21)</f>
-        <v>21851363636.363636</v>
+        <v>28266454545.454548</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LuongHuyThong\funix\Funix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Space\workspace\Funix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09265AB3-7020-4440-A470-F39401B80C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3040A9-BB32-40E0-9F76-AA24E53DB27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
   </bookViews>
   <sheets>
     <sheet name="2026-2027" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -441,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF03709-74DD-4CEC-AD19-ACEAFE61DAA0}">
   <dimension ref="B2:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,18 +495,18 @@
         <v>8</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
         <f>SUM(C4:I4)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <f>J4*K8</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -538,18 +529,18 @@
         <v>8</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J7" si="0">SUM(C5:I5)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <f>J5*K8</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -572,18 +563,18 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <f>J6*K8</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L6">
         <v>25000</v>
@@ -609,35 +600,35 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K7">
         <f>J7*K8</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J8">
         <f>SUM(J4:J7)</f>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K8">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="L8" s="1">
         <f>J8*K8</f>
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M8" s="1">
         <f>L8*12</f>
-        <v>144000</v>
+        <v>96000</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -659,11 +650,11 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L9" s="1">
         <f>L6*L8</f>
-        <v>300000000</v>
+        <v>200000000</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ref="M9:M11" si="1">L9*12</f>
-        <v>3600000000</v>
+        <v>2400000000</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -671,24 +662,24 @@
         <v>1000</v>
       </c>
       <c r="Q9" s="1">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="R9" s="1">
         <v>1000</v>
       </c>
       <c r="S9" s="1">
         <f>SUM(O9:R9)</f>
-        <v>4000</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L10" s="1">
         <f>L8-S9</f>
-        <v>8000</v>
+        <v>4150</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>96000</v>
+        <v>49800</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
@@ -701,7 +692,7 @@
       </c>
       <c r="Q10" s="1">
         <f>Q9*L6</f>
-        <v>50000000</v>
+        <v>46250000</v>
       </c>
       <c r="R10" s="1">
         <f>R9*L6</f>
@@ -709,17 +700,17 @@
       </c>
       <c r="S10" s="1">
         <f>S9*L6</f>
-        <v>100000000</v>
+        <v>96250000</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L11" s="1">
         <f>L10*L6</f>
-        <v>200000000</v>
+        <v>103750000</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>2400000000</v>
+        <v>1245000000</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
@@ -732,7 +723,7 @@
       </c>
       <c r="Q11" s="1">
         <f t="shared" ref="Q11:S11" si="2">Q9*12</f>
-        <v>24000</v>
+        <v>22200</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="2"/>
@@ -740,7 +731,7 @@
       </c>
       <c r="S11" s="1">
         <f t="shared" si="2"/>
-        <v>48000</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -748,11 +739,11 @@
         <v>11</v>
       </c>
       <c r="L12" s="1">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M12" s="1">
         <f>L12*12</f>
-        <v>15600</v>
+        <v>24000</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1">
@@ -765,7 +756,7 @@
       </c>
       <c r="Q12" s="1">
         <f t="shared" ref="Q12:S12" si="3">Q10*12</f>
-        <v>600000000</v>
+        <v>555000000</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="3"/>
@@ -773,17 +764,17 @@
       </c>
       <c r="S12" s="1">
         <f t="shared" si="3"/>
-        <v>1200000000</v>
+        <v>1155000000</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L13" s="1">
         <f>L12*L6</f>
-        <v>32500000</v>
+        <v>50000000</v>
       </c>
       <c r="M13" s="1">
         <f>L13*12</f>
-        <v>390000000</v>
+        <v>600000000</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -794,11 +785,11 @@
       </c>
       <c r="L14" s="1">
         <f>L10-L12</f>
-        <v>6700</v>
+        <v>2150</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ref="M14:M15" si="4">L14*12</f>
-        <v>80400</v>
+        <v>25800</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -806,11 +797,11 @@
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L15" s="1">
         <f>L14*L6</f>
-        <v>167500000</v>
+        <v>53750000</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="4"/>
-        <v>2010000000</v>
+        <v>645000000</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -831,25 +822,25 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P16" s="1">
         <f>P15*L12</f>
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="Q16" s="1">
         <f>Q15*L12</f>
-        <v>3250000</v>
+        <v>5000000</v>
       </c>
       <c r="R16" s="1">
         <f>R15*L12</f>
-        <v>650000</v>
+        <v>1000000</v>
       </c>
       <c r="S16" s="1">
         <f>S15*L12</f>
-        <v>4550000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="17" spans="12:19" x14ac:dyDescent="0.25">
       <c r="M17" s="1">
         <f>M14*2</f>
-        <v>160800</v>
+        <v>51600</v>
       </c>
       <c r="P17" s="1">
         <f>P15*12</f>
@@ -871,43 +862,43 @@
     <row r="18" spans="12:19" x14ac:dyDescent="0.25">
       <c r="M18" s="1">
         <f>M12*2</f>
-        <v>31200</v>
+        <v>48000</v>
       </c>
       <c r="P18" s="1">
         <f>P16*12</f>
-        <v>7800000</v>
+        <v>12000000</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" ref="Q18:S18" si="6">Q16*12</f>
-        <v>39000000</v>
+        <v>60000000</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="6"/>
-        <v>7800000</v>
+        <v>12000000</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="6"/>
-        <v>54600000</v>
+        <v>84000000</v>
       </c>
     </row>
     <row r="21" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L21" s="1">
         <f>L8-S15</f>
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" ref="M21:M22" si="7">L21*12</f>
-        <v>102000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="22" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L22" s="1">
         <f>L21*L6</f>
-        <v>212500000</v>
+        <v>112500000</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="7"/>
-        <v>2550000000</v>
+        <v>1350000000</v>
       </c>
     </row>
     <row r="23" spans="12:19" x14ac:dyDescent="0.25">
@@ -932,21 +923,21 @@
     <row r="25" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L25" s="1">
         <f>L21-L23</f>
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" ref="M25:M26" si="8">L25*12</f>
-        <v>78000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="26" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L26" s="1">
         <f>L25*L6</f>
-        <v>162500000</v>
+        <v>62500000</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="8"/>
-        <v>1950000000</v>
+        <v>750000000</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F48E21D-7BC3-4DFC-9BB4-4E0BE816ECC3}">
   <dimension ref="B3:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Space\workspace\Funix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LuongHuyThong\funix\Funix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3040A9-BB32-40E0-9F76-AA24E53DB27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A16E1E7-772C-4492-A532-99CFD0EFBFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
+    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{CA12F09E-21D8-4910-9D86-5BDED8238752}"/>
   </bookViews>
   <sheets>
     <sheet name="2026-2027" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -432,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF03709-74DD-4CEC-AD19-ACEAFE61DAA0}">
   <dimension ref="B2:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +515,7 @@
       </c>
       <c r="K4">
         <f>J4*K8</f>
-        <v>2000</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -540,7 +549,7 @@
       </c>
       <c r="K5">
         <f>J5*K8</f>
-        <v>2000</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -574,7 +583,7 @@
       </c>
       <c r="K6">
         <f>J6*K8</f>
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="L6">
         <v>25000</v>
@@ -611,7 +620,7 @@
       </c>
       <c r="K7">
         <f>J7*K8</f>
-        <v>2000</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -620,15 +629,15 @@
         <v>200</v>
       </c>
       <c r="K8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="1">
         <f>J8*K8</f>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M8" s="1">
         <f>L8*12</f>
-        <v>96000</v>
+        <v>108000</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -650,11 +659,11 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L9" s="1">
         <f>L6*L8</f>
-        <v>200000000</v>
+        <v>225000000</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ref="M9:M11" si="1">L9*12</f>
-        <v>2400000000</v>
+        <v>2700000000</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -675,11 +684,11 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L10" s="1">
         <f>L8-S9</f>
-        <v>4150</v>
+        <v>5150</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>49800</v>
+        <v>61800</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
@@ -706,11 +715,11 @@
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L11" s="1">
         <f>L10*L6</f>
-        <v>103750000</v>
+        <v>128750000</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>1245000000</v>
+        <v>1545000000</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
@@ -739,11 +748,11 @@
         <v>11</v>
       </c>
       <c r="L12" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M12" s="1">
         <f>L12*12</f>
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1">
@@ -770,11 +779,11 @@
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L13" s="1">
         <f>L12*L6</f>
-        <v>50000000</v>
+        <v>75000000</v>
       </c>
       <c r="M13" s="1">
         <f>L13*12</f>
-        <v>600000000</v>
+        <v>900000000</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -822,19 +831,19 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P16" s="1">
         <f>P15*L12</f>
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="Q16" s="1">
         <f>Q15*L12</f>
-        <v>5000000</v>
+        <v>7500000</v>
       </c>
       <c r="R16" s="1">
         <f>R15*L12</f>
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="S16" s="1">
         <f>S15*L12</f>
-        <v>7000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="17" spans="12:19" x14ac:dyDescent="0.25">
@@ -862,43 +871,43 @@
     <row r="18" spans="12:19" x14ac:dyDescent="0.25">
       <c r="M18" s="1">
         <f>M12*2</f>
-        <v>48000</v>
+        <v>72000</v>
       </c>
       <c r="P18" s="1">
         <f>P16*12</f>
-        <v>12000000</v>
+        <v>18000000</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" ref="Q18:S18" si="6">Q16*12</f>
-        <v>60000000</v>
+        <v>90000000</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="6"/>
-        <v>12000000</v>
+        <v>18000000</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="6"/>
-        <v>84000000</v>
+        <v>126000000</v>
       </c>
     </row>
     <row r="21" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L21" s="1">
         <f>L8-S15</f>
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" ref="M21:M22" si="7">L21*12</f>
-        <v>54000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="22" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L22" s="1">
         <f>L21*L6</f>
-        <v>112500000</v>
+        <v>137500000</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="7"/>
-        <v>1350000000</v>
+        <v>1650000000</v>
       </c>
     </row>
     <row r="23" spans="12:19" x14ac:dyDescent="0.25">
@@ -923,21 +932,21 @@
     <row r="25" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L25" s="1">
         <f>L21-L23</f>
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" ref="M25:M26" si="8">L25*12</f>
-        <v>30000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="26" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L26" s="1">
         <f>L25*L6</f>
-        <v>62500000</v>
+        <v>87500000</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="8"/>
-        <v>750000000</v>
+        <v>1050000000</v>
       </c>
     </row>
   </sheetData>
